--- a/Fine Form Pre-Cast/35511/toedit10.xlsx
+++ b/Fine Form Pre-Cast/35511/toedit10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Fine Form Pre-Cast\35511\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9461C185-3A12-4E1E-8A25-070F159358BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E12BE5-7517-46B7-ADC7-FE2D6C92CA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="675" windowWidth="28890" windowHeight="19560" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
+    <workbookView xWindow="9465" yWindow="2535" windowWidth="28890" windowHeight="18450" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
   </bookViews>
   <sheets>
     <sheet name="to_add" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Step Id</t>
   </si>
@@ -59,6 +59,39 @@
   </si>
   <si>
     <t>Tier 6</t>
+  </si>
+  <si>
+    <t>c7e83fd4-8eb7-4731-882a-1ad84cf6e44a</t>
+  </si>
+  <si>
+    <t>work-in-progress</t>
+  </si>
+  <si>
+    <t>Installers Checklist</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Panel No. P-36</t>
+  </si>
+  <si>
+    <t>de022460-9bd8-499c-ad43-e052946c7341</t>
+  </si>
+  <si>
+    <t>Panel No. P-136</t>
+  </si>
+  <si>
+    <t>d2a90561-f543-4969-b7bb-86a87ec49dd1</t>
+  </si>
+  <si>
+    <t>Panel No. P-37</t>
+  </si>
+  <si>
+    <t>3dc2603b-ea72-44c6-9d4a-e6a4d9b69f10</t>
+  </si>
+  <si>
+    <t>Panel No. P-137</t>
   </si>
 </sst>
 </file>
@@ -919,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2ADC0-CB01-4C78-A0B7-4CDD953FBAB6}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,6 +1001,110 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
